--- a/planning_school.xlsx
+++ b/planning_school.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
   <si>
     <t>规划校名称</t>
   </si>
@@ -140,7 +140,58 @@
     <t>城市</t>
   </si>
   <si>
-    <t>太阳小学</t>
+    <t>邮政编码</t>
+  </si>
+  <si>
+    <t>传真电话</t>
+  </si>
+  <si>
+    <t>单位电子信箱</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>电话区号</t>
+  </si>
+  <si>
+    <t>所在经度</t>
+  </si>
+  <si>
+    <t>所在纬度</t>
+  </si>
+  <si>
+    <t>法定代表人姓名</t>
+  </si>
+  <si>
+    <t>党组织负责人姓名</t>
+  </si>
+  <si>
+    <t>党组织负责人职务</t>
+  </si>
+  <si>
+    <t>行政负责人姓名</t>
+  </si>
+  <si>
+    <t>行政负责人职务</t>
+  </si>
+  <si>
+    <t>园所所在地区</t>
+  </si>
+  <si>
+    <t>园所所在地(省级)</t>
+  </si>
+  <si>
+    <t>园所详细地址</t>
+  </si>
+  <si>
+    <t>相关证照上传</t>
+  </si>
+  <si>
+    <t>校园网域名</t>
+  </si>
+  <si>
+    <t>太阳小学30</t>
   </si>
   <si>
     <t>TS23233</t>
@@ -222,6 +273,57 @@
   </si>
   <si>
     <t>沈阳</t>
+  </si>
+  <si>
+    <t>472500S</t>
+  </si>
+  <si>
+    <t>0398-1092002S</t>
+  </si>
+  <si>
+    <t>ss.cc</t>
+  </si>
+  <si>
+    <t>3265996S</t>
+  </si>
+  <si>
+    <t>021S</t>
+  </si>
+  <si>
+    <t>223.001S</t>
+  </si>
+  <si>
+    <t>36.22S</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>NNN</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>WW.CC</t>
   </si>
 </sst>
 </file>
@@ -1387,10 +1489,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1400,7 +1502,7 @@
     <col min="26" max="26" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:54">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1512,118 +1614,220 @@
       <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:54">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="P2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="R2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="V2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="AA2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB2" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" t="s">
-        <v>40</v>
-      </c>
       <c r="AC2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="AE2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s">
-        <v>64</v>
+        <v>81</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/planning_school.xlsx
+++ b/planning_school.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
   <si>
     <t>规划校名称</t>
   </si>
@@ -191,7 +191,7 @@
     <t>校园网域名</t>
   </si>
   <si>
-    <t>太阳小学30</t>
+    <t>太阳小学31</t>
   </si>
   <si>
     <t>TS23233</t>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>WW.CC</t>
+  </si>
+  <si>
+    <t>太阳小学32</t>
   </si>
 </sst>
 </file>
@@ -1489,13 +1492,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BB2"/>
+  <dimension ref="A1:BB3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="10" max="10" width="11.5"/>
     <col min="17" max="17" width="11.5"/>
@@ -1830,6 +1833,170 @@
         <v>98</v>
       </c>
     </row>
+    <row r="3" spans="1:54">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" t="s">
+        <v>70</v>
+      </c>
+      <c r="W3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
